--- a/doc/dict.xlsx
+++ b/doc/dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cchu/IdeaProjects/erpTest/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BB8FA-DF99-6043-8C73-D5F6DC2E7E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13E3F2-FE33-9441-A648-8598C4F0F187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="33180" windowHeight="19240" xr2:uid="{005B6749-FB9F-BB40-99DA-CD5A46BB4CE1}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="33180" windowHeight="19100" xr2:uid="{005B6749-FB9F-BB40-99DA-CD5A46BB4CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +331,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,8 +362,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A473368-D687-9445-BFF7-25765B64E4BA}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1041,6 +1051,9 @@
         <v>77</v>
       </c>
     </row>
+    <row r="47" spans="1:2" ht="18">
+      <c r="B47" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
